--- a/14. Filter_Funtion.xlsx
+++ b/14. Filter_Funtion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\GitHub_Clone_Repo\Rahul_Repo\Me_Mastering_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F0D0C0-10BB-4558-A9A9-CA1A36BBF870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397955BF-5DAB-418E-BCB1-4E3706BB8C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BFBBEF0E-38F6-425F-BAC2-FA1DC07E9D1B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BFBBEF0E-38F6-425F-BAC2-FA1DC07E9D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -341,16 +341,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color auto="1"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color auto="1"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -745,11 +745,78 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2BE23A-3C87-069C-BEDC-4D667FA17594}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10553700" y="6294120"/>
+          <a:ext cx="2087880" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D379D61-1D8E-4E4F-88BC-AB151B291E5E}" name="Table1" displayName="Table1" ref="A7:O17" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D379D61-1D8E-4E4F-88BC-AB151B291E5E}" name="Table1" displayName="Table1" ref="A7:O17" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A7:O17" xr:uid="{3D379D61-1D8E-4E4F-88BC-AB151B291E5E}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{1EA9B846-0D8D-4AB8-A780-78A76657E450}" name="Order_ID"/>
@@ -1091,30 +1158,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D8C0E9-5A5E-45A5-87C9-723F9AAD6FE3}">
   <dimension ref="A7:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -1161,7 +1228,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1275,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1255,7 +1322,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1302,7 +1369,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1349,7 +1416,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1396,7 +1463,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1443,7 +1510,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1490,7 +1557,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1537,7 +1604,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1584,7 +1651,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1631,7 +1698,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B23" t="str" cm="1">
         <f t="array" ref="B23:P27">_xlfn._xlws.FILTER(A8:O17, F8:F17="Electronics")</f>
         <v>ORD1000</v>
@@ -1679,7 +1746,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <v>ORD1002</v>
       </c>
@@ -1726,7 +1793,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
         <v>ORD1003</v>
       </c>
@@ -1773,7 +1840,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26" t="str">
         <v>ORD1007</v>
       </c>
@@ -1820,7 +1887,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27" t="str">
         <v>ORD1008</v>
       </c>
